--- a/doc/Modelo Relacional - Proyecto AforoCC.xlsx
+++ b/doc/Modelo Relacional - Proyecto AforoCC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mario\OneDrive\Documents\Sistrans\Proyecto\Iteración 2\AforoJDO\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mario\OneDrive\Documents\Sistrans\Proyecto\AforoJDO\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E81D1A8-E18F-46AE-8667-7B01F278BF0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E8A35F-2208-4B9F-A103-AF8D403B0894}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{255E9D0A-E2A0-4434-8D54-C6C81425293C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="88">
   <si>
     <t>Espacio</t>
   </si>
@@ -268,6 +268,36 @@
   </si>
   <si>
     <t>('LocalComercial','Baño','Parqueadero', 'Ascensor')</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>EstadoEspacio</t>
+  </si>
+  <si>
+    <t>NN, FK EstadoEspacio.id</t>
+  </si>
+  <si>
+    <t>NN, FK EstadoVisitante.id</t>
+  </si>
+  <si>
+    <t>EstadoVisitante</t>
+  </si>
+  <si>
+    <t>CK8</t>
+  </si>
+  <si>
+    <t>('Positivo', 'Rojo', 'Naranja', 'Verde')</t>
+  </si>
+  <si>
+    <t>CK9</t>
+  </si>
+  <si>
+    <t>('Rojo', 'Naranja','Verde', 'Desocupado','Deshabilitado')</t>
   </si>
 </sst>
 </file>
@@ -373,7 +403,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -388,6 +418,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -707,10 +740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E968AB6B-9D39-4DCA-9FF6-950E47566C36}">
-  <dimension ref="A1:I74"/>
+  <dimension ref="A1:J85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I74"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73:D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,18 +752,19 @@
     <col min="2" max="2" width="35.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="33.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -746,8 +780,11 @@
       <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -763,8 +800,11 @@
       <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
@@ -780,13 +820,16 @@
       <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -797,7 +840,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
@@ -808,7 +851,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
@@ -819,12 +862,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -832,7 +875,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
@@ -840,7 +883,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
@@ -848,12 +891,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -861,7 +904,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
@@ -869,7 +912,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
@@ -877,12 +920,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>1</v>
       </c>
@@ -893,7 +936,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>27</v>
       </c>
@@ -904,7 +947,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>11</v>
       </c>
@@ -915,12 +958,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>1</v>
       </c>
@@ -937,7 +980,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>27</v>
       </c>
@@ -954,7 +997,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>11</v>
       </c>
@@ -971,12 +1014,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>1</v>
       </c>
@@ -1004,8 +1047,11 @@
       <c r="I32" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>27</v>
       </c>
@@ -1033,8 +1079,11 @@
       <c r="I33" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>11</v>
       </c>
@@ -1062,13 +1111,16 @@
       <c r="I34" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>2</v>
       </c>
@@ -1079,7 +1131,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>51</v>
       </c>
@@ -1090,7 +1142,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>12</v>
       </c>
@@ -1101,32 +1153,32 @@
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>1</v>
       </c>
@@ -1134,7 +1186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>27</v>
       </c>
@@ -1254,60 +1306,152 @@
         <v>57</v>
       </c>
     </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="7" t="s">
+      <c r="A68" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B77" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="7" t="s">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B78" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="7" t="s">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B79" s="5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="7" t="s">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B80" s="6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="7" t="s">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B81" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="7" t="s">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B73" s="8" t="s">
+      <c r="B82" s="8" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="10" t="s">
+    <row r="83" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="B74" s="9" t="s">
+      <c r="B83" s="9" t="s">
         <v>77</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1318,6 +1462,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010002222FD6D0F86E45A569DC9E4C28B8F3" ma:contentTypeVersion="12" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="6f0ae6ccb35a09612d4f76fdc8568413">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="722eec1b-d178-4396-95cb-7759c112cad0" xmlns:ns4="15dbb343-7c01-4e26-8f77-e0d74111dc54" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c979b40bbbfafcfef8fbcd0845d79ef5" ns3:_="" ns4:_="">
     <xsd:import namespace="722eec1b-d178-4396-95cb-7759c112cad0"/>
@@ -1534,12 +1684,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1550,6 +1694,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2E48C9D-18FC-4BBD-AD72-A793FF60519B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="722eec1b-d178-4396-95cb-7759c112cad0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="15dbb343-7c01-4e26-8f77-e0d74111dc54"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7312381-A608-4211-8CCE-8E73EFD00007}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1568,23 +1729,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2E48C9D-18FC-4BBD-AD72-A793FF60519B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="722eec1b-d178-4396-95cb-7759c112cad0"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="15dbb343-7c01-4e26-8f77-e0d74111dc54"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABFEB1EB-F0AB-4FEA-8355-3CFA8A6CA882}">
   <ds:schemaRefs>

--- a/doc/Modelo Relacional - Proyecto AforoCC.xlsx
+++ b/doc/Modelo Relacional - Proyecto AforoCC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mario\OneDrive\Documents\Sistrans\Proyecto\AforoJDO\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E8A35F-2208-4B9F-A103-AF8D403B0894}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE843BEE-706C-41EF-93D2-4EDD421269A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{255E9D0A-E2A0-4434-8D54-C6C81425293C}"/>
   </bookViews>
@@ -742,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E968AB6B-9D39-4DCA-9FF6-950E47566C36}">
   <dimension ref="A1:J85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73:D74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J85" sqref="A1:J85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1462,12 +1462,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x01010002222FD6D0F86E45A569DC9E4C28B8F3" ma:contentTypeVersion="12" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="6f0ae6ccb35a09612d4f76fdc8568413">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="722eec1b-d178-4396-95cb-7759c112cad0" xmlns:ns4="15dbb343-7c01-4e26-8f77-e0d74111dc54" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c979b40bbbfafcfef8fbcd0845d79ef5" ns3:_="" ns4:_="">
     <xsd:import namespace="722eec1b-d178-4396-95cb-7759c112cad0"/>
@@ -1684,6 +1678,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1694,23 +1694,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2E48C9D-18FC-4BBD-AD72-A793FF60519B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="722eec1b-d178-4396-95cb-7759c112cad0"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="15dbb343-7c01-4e26-8f77-e0d74111dc54"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7312381-A608-4211-8CCE-8E73EFD00007}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1729,6 +1712,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2E48C9D-18FC-4BBD-AD72-A793FF60519B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="722eec1b-d178-4396-95cb-7759c112cad0"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="15dbb343-7c01-4e26-8f77-e0d74111dc54"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABFEB1EB-F0AB-4FEA-8355-3CFA8A6CA882}">
   <ds:schemaRefs>
